--- a/data/trans_orig/P16B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7A0301-39A5-43F2-9E0F-A4C7F181FCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{337D89A6-1EB1-4BF8-B462-635AFFBD9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F638C4A0-A000-45AC-BB80-457397774A91}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DDA069A4-108F-4952-9A93-C929FDF2DDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="226">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>93,61%</t>
   </si>
   <si>
-    <t>74,48%</t>
+    <t>69,06%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>95,04%</t>
   </si>
   <si>
-    <t>79,59%</t>
+    <t>77,37%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>83,26%</t>
+    <t>82,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>25,52%</t>
+    <t>30,94%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>20,41%</t>
+    <t>22,63%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>16,74%</t>
+    <t>17,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,7 +127,7 @@
     <t>84,58%</t>
   </si>
   <si>
-    <t>52,28%</t>
+    <t>55,05%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -136,13 +136,13 @@
     <t>93,63%</t>
   </si>
   <si>
-    <t>78,09%</t>
+    <t>77,54%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>47,72%</t>
+    <t>44,95%</t>
   </si>
   <si>
     <t>0%</t>
@@ -154,7 +154,7 @@
     <t>6,37%</t>
   </si>
   <si>
-    <t>21,91%</t>
+    <t>22,46%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -184,7 +184,7 @@
     <t>74,5%</t>
   </si>
   <si>
-    <t>32,42%</t>
+    <t>30,4%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -193,13 +193,13 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>67,25%</t>
+    <t>67,74%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>67,58%</t>
+    <t>69,6%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -208,7 +208,7 @@
     <t>10,28%</t>
   </si>
   <si>
-    <t>32,75%</t>
+    <t>32,26%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -238,73 +238,73 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>81,37%</t>
+    <t>77,33%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>82,35%</t>
+    <t>87,7%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>18,63%</t>
+    <t>22,67%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>17,65%</t>
+    <t>12,3%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,19%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -328,25 +328,25 @@
     <t>94,26%</t>
   </si>
   <si>
-    <t>82,4%</t>
+    <t>82,04%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>88,25%</t>
+    <t>89,1%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>17,6%</t>
+    <t>17,96%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>11,75%</t>
+    <t>10,9%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -361,40 +361,28 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>16,39%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -418,25 +406,25 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>80,5%</t>
+    <t>85,64%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>89,92%</t>
+    <t>89,81%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>19,5%</t>
+    <t>14,36%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>10,08%</t>
+    <t>10,19%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -445,16 +433,19 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>98,89%</t>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -463,16 +454,19 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2015 (Tasa respuesta: 4,17%)</t>
@@ -481,157 +475,163 @@
     <t>78,3%</t>
   </si>
   <si>
-    <t>49,19%</t>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
     <t>4,55%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>70,51%</t>
+    <t>70,63%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>70,98%</t>
+    <t>68,94%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>81,11%</t>
+    <t>79,47%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>29,49%</t>
+    <t>29,37%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>29,02%</t>
+    <t>31,06%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>18,89%</t>
+    <t>20,53%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -640,13 +640,13 @@
     <t>96,78%</t>
   </si>
   <si>
-    <t>82,95%</t>
+    <t>82,92%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>88,69%</t>
+    <t>88,9%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -655,61 +655,67 @@
     <t>3,22%</t>
   </si>
   <si>
-    <t>17,05%</t>
+    <t>17,08%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>11,31%</t>
+    <t>11,1%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>92,56%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>7,44%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E2550C-F6EE-41A8-BB51-164E425765D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888645D6-2BF1-417D-B283-16FF0333878B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1862,7 +1868,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>9971</v>
+        <v>9972</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
@@ -1964,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>9971</v>
+        <v>9972</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -2340,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D2E311-FEB6-4743-842C-B3156F838BF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7D3F6-A9F7-4AD2-8924-48A9A3D2F25D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2944,13 +2950,13 @@
         <v>31128</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -2959,13 +2965,13 @@
         <v>45011</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3001,13 @@
         <v>3019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3010,13 +3016,13 @@
         <v>3019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,7 +3093,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3102,7 +3108,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3117,7 +3123,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3141,7 +3147,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3156,7 +3162,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3171,7 +3177,7 @@
         <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,10 +3260,10 @@
         <v>26968</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3269,10 +3275,10 @@
         <v>49098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3305,13 +3311,13 @@
         <v>981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3320,13 +3326,13 @@
         <v>981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3403,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -3406,16 +3412,16 @@
         <v>176</v>
       </c>
       <c r="I22" s="7">
-        <v>187960</v>
+        <v>187959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>280</v>
@@ -3424,13 +3430,13 @@
         <v>302703</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,7 +3457,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3460,13 +3466,13 @@
         <v>6166</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3475,13 +3481,13 @@
         <v>6166</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,7 +3514,7 @@
         <v>182</v>
       </c>
       <c r="I24" s="7">
-        <v>194126</v>
+        <v>194125</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>26</v>
@@ -3559,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B5E553-E63A-4754-88AA-7806492AEAEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BBF623-1CB8-45BB-9C8B-51CE4A72BDF6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,13 +3689,13 @@
         <v>12681</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -3701,7 +3707,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3713,13 +3719,13 @@
         <v>33614</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3740,13 @@
         <v>3514</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3755,7 +3761,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3764,13 +3770,13 @@
         <v>3514</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,10 +3844,10 @@
         <v>19372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3853,10 +3859,10 @@
         <v>33640</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3868,10 +3874,10 @@
         <v>53013</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3889,13 +3895,13 @@
         <v>930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3904,13 +3910,13 @@
         <v>1006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3919,13 +3925,13 @@
         <v>1936</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,10 +3999,10 @@
         <v>19855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4008,10 +4014,10 @@
         <v>43696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4023,13 +4029,13 @@
         <v>63551</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4050,13 @@
         <v>1022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4059,13 +4065,13 @@
         <v>2095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4074,13 +4080,13 @@
         <v>3117</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -4181,7 +4187,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -4220,7 +4226,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4634,7 +4640,7 @@
         <v>212</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>263</v>
@@ -4643,13 +4649,13 @@
         <v>279349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4670,13 @@
         <v>6601</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -4679,13 +4685,13 @@
         <v>5826</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -4694,13 +4700,13 @@
         <v>12427</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{337D89A6-1EB1-4BF8-B462-635AFFBD9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43735036-23A8-4CB8-990B-AA7CF68EFB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DDA069A4-108F-4952-9A93-C929FDF2DDC1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92852C53-61C7-45C3-9707-765999AD28A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="228">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>93,61%</t>
   </si>
   <si>
-    <t>69,06%</t>
+    <t>64,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>95,04%</t>
   </si>
   <si>
-    <t>77,37%</t>
+    <t>78,35%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>82,2%</t>
+    <t>80,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>30,94%</t>
+    <t>35,35%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>22,63%</t>
+    <t>21,65%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>17,8%</t>
+    <t>19,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,7 +127,7 @@
     <t>84,58%</t>
   </si>
   <si>
-    <t>55,05%</t>
+    <t>47,84%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -136,13 +136,13 @@
     <t>93,63%</t>
   </si>
   <si>
-    <t>77,54%</t>
+    <t>78,79%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>44,95%</t>
+    <t>52,16%</t>
   </si>
   <si>
     <t>0%</t>
@@ -154,7 +154,7 @@
     <t>6,37%</t>
   </si>
   <si>
-    <t>22,46%</t>
+    <t>21,21%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -184,7 +184,7 @@
     <t>74,5%</t>
   </si>
   <si>
-    <t>30,4%</t>
+    <t>30,77%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -193,13 +193,13 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>67,74%</t>
+    <t>68,32%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>69,6%</t>
+    <t>69,23%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -208,7 +208,7 @@
     <t>10,28%</t>
   </si>
   <si>
-    <t>32,26%</t>
+    <t>31,68%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -238,151 +238,163 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>77,33%</t>
+    <t>82,55%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>87,7%</t>
+    <t>84,76%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>22,67%</t>
+    <t>17,45%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>12,3%</t>
+    <t>15,24%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para la alergia recetados en 2012 (Tasa respuesta: 4,4%)</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para la alergia recetados en 2012 (Tasa respuesta: 4,4%)</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>16,39%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -406,25 +418,25 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>85,64%</t>
+    <t>81,36%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>89,81%</t>
+    <t>90,05%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>14,36%</t>
+    <t>18,64%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>9,95%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -433,19 +445,19 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -454,28 +466,28 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para la alergia recetados en 2015 (Tasa respuesta: 4,17%)</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>50,42%</t>
+    <t>49,39%</t>
   </si>
   <si>
     <t>93,9%</t>
@@ -487,10 +499,10 @@
     <t>90,53%</t>
   </si>
   <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>21,7%</t>
@@ -499,7 +511,7 @@
     <t>6,1%</t>
   </si>
   <si>
-    <t>49,58%</t>
+    <t>50,61%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -508,82 +520,82 @@
     <t>9,47%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>72,12%</t>
+    <t>76,76%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>85,18%</t>
+    <t>86,75%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>87,79%</t>
+    <t>87,46%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>27,88%</t>
+    <t>23,24%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>14,82%</t>
+    <t>13,25%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>12,54%</t>
   </si>
   <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -601,37 +613,37 @@
     <t>94,08%</t>
   </si>
   <si>
-    <t>70,63%</t>
+    <t>70,35%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>68,94%</t>
+    <t>63,68%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>79,47%</t>
+    <t>79,72%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>29,37%</t>
+    <t>29,65%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>31,06%</t>
+    <t>36,32%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>20,53%</t>
+    <t>20,28%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -640,13 +652,13 @@
     <t>96,78%</t>
   </si>
   <si>
-    <t>82,92%</t>
+    <t>82,68%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>88,9%</t>
+    <t>88,89%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -655,67 +667,61 @@
     <t>3,22%</t>
   </si>
   <si>
-    <t>17,08%</t>
+    <t>17,32%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>11,1%</t>
+    <t>11,11%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>86,73%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>13,27%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888645D6-2BF1-417D-B283-16FF0333878B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4966B8-6873-40A4-80A6-E3BF8F7E14F9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2346,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7D3F6-A9F7-4AD2-8924-48A9A3D2F25D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB052537-B51B-41A2-9907-06058FA4D340}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2950,13 +2956,13 @@
         <v>31128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -2965,13 +2971,13 @@
         <v>45011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3007,13 @@
         <v>3019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3016,13 +3022,13 @@
         <v>3019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3108,7 +3114,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3123,7 +3129,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3147,7 +3153,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3162,7 +3168,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3177,7 +3183,7 @@
         <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,10 +3266,10 @@
         <v>26968</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3275,10 +3281,10 @@
         <v>49098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3311,13 +3317,13 @@
         <v>981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3326,13 +3332,13 @@
         <v>981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,7 +3409,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -3412,16 +3418,16 @@
         <v>176</v>
       </c>
       <c r="I22" s="7">
-        <v>187959</v>
+        <v>187960</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>280</v>
@@ -3430,13 +3436,13 @@
         <v>302703</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,7 +3463,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3466,13 +3472,13 @@
         <v>6166</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3481,13 +3487,13 @@
         <v>6166</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3520,7 @@
         <v>182</v>
       </c>
       <c r="I24" s="7">
-        <v>194125</v>
+        <v>194126</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>26</v>
@@ -3565,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BBF623-1CB8-45BB-9C8B-51CE4A72BDF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32BCEC9-B064-4768-9D24-6B5795136B4D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,7 +3588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3689,13 +3695,13 @@
         <v>12681</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -3707,7 +3713,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3719,13 +3725,13 @@
         <v>33614</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3746,13 @@
         <v>3514</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3761,7 +3767,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3770,13 +3776,13 @@
         <v>3514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,10 +3850,10 @@
         <v>19372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3859,10 +3865,10 @@
         <v>33640</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3874,10 +3880,10 @@
         <v>53013</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3895,13 +3901,13 @@
         <v>930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3910,13 +3916,13 @@
         <v>1006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3925,13 +3931,13 @@
         <v>1936</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,10 +4005,10 @@
         <v>19855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4014,10 +4020,10 @@
         <v>43696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4029,13 +4035,13 @@
         <v>63551</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4056,13 @@
         <v>1022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4065,13 +4071,13 @@
         <v>2095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4080,13 +4086,13 @@
         <v>3117</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -4187,7 +4193,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -4226,7 +4232,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4241,7 +4247,7 @@
         <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,10 +4315,10 @@
         <v>18025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4324,10 +4330,10 @@
         <v>24359</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4339,10 +4345,10 @@
         <v>42384</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4360,13 +4366,13 @@
         <v>1135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4375,13 +4381,13 @@
         <v>1819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4390,13 +4396,13 @@
         <v>2954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,7 +4473,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -4479,10 +4485,10 @@
         <v>27191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4494,10 +4500,10 @@
         <v>40251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4521,7 +4527,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4530,13 +4536,13 @@
         <v>905</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4545,13 +4551,13 @@
         <v>905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4625,13 @@
         <v>95612</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -4634,13 +4640,13 @@
         <v>183737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
         <v>263</v>
@@ -4649,13 +4655,13 @@
         <v>279349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4676,13 @@
         <v>6601</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -4685,13 +4691,13 @@
         <v>5826</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -4700,13 +4706,13 @@
         <v>12427</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43735036-23A8-4CB8-990B-AA7CF68EFB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD55D0FD-9B82-4428-8D91-28ACA902D1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92852C53-61C7-45C3-9707-765999AD28A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E002FA15-13A5-414F-9919-7B625F891840}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="224">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>64,65%</t>
+    <t>74,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>95,04%</t>
   </si>
   <si>
-    <t>78,35%</t>
+    <t>79,59%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>80,62%</t>
+    <t>83,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,35%</t>
+    <t>25,52%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>21,65%</t>
+    <t>20,41%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>19,38%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,7 +127,7 @@
     <t>84,58%</t>
   </si>
   <si>
-    <t>47,84%</t>
+    <t>52,28%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -136,13 +136,13 @@
     <t>93,63%</t>
   </si>
   <si>
-    <t>78,79%</t>
+    <t>78,09%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>52,16%</t>
+    <t>47,72%</t>
   </si>
   <si>
     <t>0%</t>
@@ -154,7 +154,7 @@
     <t>6,37%</t>
   </si>
   <si>
-    <t>21,21%</t>
+    <t>21,91%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -184,7 +184,7 @@
     <t>74,5%</t>
   </si>
   <si>
-    <t>30,77%</t>
+    <t>32,42%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -193,13 +193,13 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>68,32%</t>
+    <t>67,25%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>69,23%</t>
+    <t>67,58%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -208,7 +208,7 @@
     <t>10,28%</t>
   </si>
   <si>
-    <t>31,68%</t>
+    <t>32,75%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -238,73 +238,73 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>82,55%</t>
+    <t>81,37%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>84,76%</t>
+    <t>82,35%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>17,45%</t>
+    <t>18,63%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>15,24%</t>
+    <t>17,65%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>95,19%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -328,25 +328,25 @@
     <t>94,26%</t>
   </si>
   <si>
-    <t>81,49%</t>
+    <t>82,4%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>87,84%</t>
+    <t>88,25%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>18,51%</t>
+    <t>17,6%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>12,16%</t>
+    <t>11,75%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -364,37 +364,37 @@
     <t>91,16%</t>
   </si>
   <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -418,25 +418,25 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>81,36%</t>
+    <t>80,5%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>90,05%</t>
+    <t>89,92%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>18,64%</t>
+    <t>19,5%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>10,08%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -445,19 +445,16 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>98,89%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -466,19 +463,16 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
@@ -487,10 +481,10 @@
     <t>78,3%</t>
   </si>
   <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -499,19 +493,19 @@
     <t>90,53%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -520,61 +514,61 @@
     <t>9,47%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>76,76%</t>
+    <t>72,07%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>86,75%</t>
+    <t>87,25%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>87,46%</t>
+    <t>87,35%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>23,24%</t>
+    <t>27,93%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>13,25%</t>
+    <t>12,75%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>12,54%</t>
+    <t>12,65%</t>
   </si>
   <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>87,29%</t>
+    <t>87,16%</t>
   </si>
   <si>
     <t>98,54%</t>
@@ -583,10 +577,10 @@
     <t>4,89%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>4,68%</t>
@@ -595,55 +589,49 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>12,84%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
     <t>4,55%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>70,35%</t>
+    <t>70,51%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>63,68%</t>
+    <t>70,98%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>79,72%</t>
+    <t>81,11%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>29,65%</t>
+    <t>29,49%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>36,32%</t>
+    <t>29,02%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>20,28%</t>
+    <t>18,89%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -652,13 +640,13 @@
     <t>96,78%</t>
   </si>
   <si>
-    <t>82,68%</t>
+    <t>82,95%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>88,89%</t>
+    <t>88,69%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -667,61 +655,61 @@
     <t>3,22%</t>
   </si>
   <si>
-    <t>17,32%</t>
+    <t>17,05%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>11,11%</t>
+    <t>11,31%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>86,73%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>92,56%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>13,27%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>7,44%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4966B8-6873-40A4-80A6-E3BF8F7E14F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EFF6C6-8C4E-490C-B50F-133408639E1F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1874,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>9972</v>
+        <v>9971</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
@@ -1976,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>9972</v>
+        <v>9971</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -2352,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB052537-B51B-41A2-9907-06058FA4D340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB57C56-C5E1-485C-B1EB-095CBAD84DBD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3424,10 +3412,10 @@
         <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>280</v>
@@ -3436,13 +3424,13 @@
         <v>302703</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,7 +3451,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3472,13 +3460,13 @@
         <v>6166</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3487,13 +3475,13 @@
         <v>6166</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32BCEC9-B064-4768-9D24-6B5795136B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2967A15B-E2A5-42BD-9871-4CFD08D24558}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,7 +3576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3695,13 +3683,13 @@
         <v>12681</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -3713,7 +3701,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3725,13 +3713,13 @@
         <v>33614</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3734,13 @@
         <v>3514</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3767,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3776,13 +3764,13 @@
         <v>3514</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,10 +3838,10 @@
         <v>19372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3865,10 +3853,10 @@
         <v>33640</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3880,10 +3868,10 @@
         <v>53013</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3901,13 +3889,13 @@
         <v>930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3916,13 +3904,13 @@
         <v>1006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3931,13 +3919,13 @@
         <v>1936</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,10 +3993,10 @@
         <v>19855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4020,10 +4008,10 @@
         <v>43696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4035,13 +4023,13 @@
         <v>63551</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4044,13 @@
         <v>1022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4071,13 +4059,13 @@
         <v>2095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4086,13 +4074,13 @@
         <v>3117</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,7 +4166,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -4193,7 +4181,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -4232,7 +4220,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4247,7 +4235,7 @@
         <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,10 +4303,10 @@
         <v>18025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4330,10 +4318,10 @@
         <v>24359</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4345,10 +4333,10 @@
         <v>42384</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4366,13 +4354,13 @@
         <v>1135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4381,13 +4369,13 @@
         <v>1819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4396,13 +4384,13 @@
         <v>2954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4461,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -4485,10 +4473,10 @@
         <v>27191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4500,10 +4488,10 @@
         <v>40251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4527,7 +4515,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4536,13 +4524,13 @@
         <v>905</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4551,13 +4539,13 @@
         <v>905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4613,13 @@
         <v>95612</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -4640,13 +4628,13 @@
         <v>183737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>263</v>
@@ -4655,13 +4643,13 @@
         <v>279349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4664,13 @@
         <v>6601</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -4691,13 +4679,13 @@
         <v>5826</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -4706,13 +4694,13 @@
         <v>12427</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD55D0FD-9B82-4428-8D91-28ACA902D1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB150229-20E2-4744-86CE-5FE1CE649054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E002FA15-13A5-414F-9919-7B625F891840}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{64D1E8D2-0396-4B97-9ACA-6530FE90B9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="235">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -121,7 +121,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>84,58%</t>
@@ -157,7 +157,7 @@
     <t>21,91%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -178,7 +178,7 @@
     <t>4,9%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>74,5%</t>
@@ -211,7 +211,7 @@
     <t>32,75%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -232,31 +232,58 @@
     <t>6,57%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>91,22%</t>
@@ -415,28 +442,40 @@
     <t>8,27%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -634,34 +673,28 @@
     <t>18,89%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>93,54%</t>
@@ -1121,8 +1154,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EFF6C6-8C4E-490C-B50F-133408639E1F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0DCE2B-1366-4AFE-8D5C-B706391B489E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2014,46 +2047,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>9156</v>
+        <v>5104</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>22573</v>
+        <v>14816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>31728</v>
+        <v>19920</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -2077,7 +2110,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2086,13 +2119,13 @@
         <v>958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2101,13 +2134,13 @@
         <v>958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,10 +2149,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>9156</v>
+        <v>5104</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -2131,10 +2164,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I21" s="7">
-        <v>23531</v>
+        <v>15774</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -2146,10 +2179,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N21" s="7">
-        <v>32686</v>
+        <v>20878</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2163,55 +2196,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>69528</v>
+        <v>4052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H22" s="7">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>130438</v>
+        <v>7756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M22" s="7">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>199965</v>
+        <v>11809</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,49 +2253,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>6695</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1839</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="7">
-        <v>7</v>
-      </c>
-      <c r="N23" s="7">
-        <v>8534</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,63 +2304,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4052</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7756</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>10</v>
+      </c>
+      <c r="N24" s="7">
+        <v>11809</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7">
+        <v>69528</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="7">
+        <v>126</v>
+      </c>
+      <c r="I25" s="7">
+        <v>130438</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="7">
+        <v>193</v>
+      </c>
+      <c r="N25" s="7">
+        <v>199965</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6695</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1839</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7</v>
+      </c>
+      <c r="N26" s="7">
+        <v>8534</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>72</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>76223</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>128</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>132277</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>200</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>208499</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>89</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2340,8 +2529,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB57C56-C5E1-485C-B1EB-095CBAD84DBD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D9692F-4DF2-4961-8EDE-558508A47DF9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2357,7 +2546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2467,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -2497,7 +2686,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -2521,7 +2710,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2551,7 +2740,7 @@
         <v>35</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,10 +2823,10 @@
         <v>35580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2649,10 +2838,10 @@
         <v>60839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2685,13 +2874,13 @@
         <v>2167</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2700,13 +2889,13 @@
         <v>2167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -2807,7 +2996,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -2846,7 +3035,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2861,7 +3050,7 @@
         <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +3133,13 @@
         <v>31128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -2959,13 +3148,13 @@
         <v>45011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3184,13 @@
         <v>3019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3010,13 +3199,13 @@
         <v>3019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,7 +3276,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3102,7 +3291,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3117,7 +3306,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3141,7 +3330,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3156,7 +3345,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3171,7 +3360,7 @@
         <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,46 +3422,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>22129</v>
+        <v>12408</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>26968</v>
+        <v>13867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>49098</v>
+        <v>26275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3296,7 +3485,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3305,13 +3494,13 @@
         <v>981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3320,13 +3509,13 @@
         <v>981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D21" s="7">
-        <v>22129</v>
+        <v>12408</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -3350,10 +3539,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I21" s="7">
-        <v>27949</v>
+        <v>14848</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -3365,10 +3554,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N21" s="7">
-        <v>50079</v>
+        <v>27256</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -3382,55 +3571,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>114743</v>
+        <v>9721</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="7">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>187960</v>
+        <v>13101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="M22" s="7">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>302703</v>
+        <v>22823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,37 +3640,37 @@
         <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>6166</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>6166</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,63 +3679,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9721</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>13101</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>20</v>
+      </c>
+      <c r="N24" s="7">
+        <v>22823</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>104</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>114743</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="7">
+        <v>176</v>
+      </c>
+      <c r="I25" s="7">
+        <v>187959</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>280</v>
+      </c>
+      <c r="N25" s="7">
+        <v>302703</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6166</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6166</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>104</v>
+      </c>
+      <c r="D27" s="7">
+        <v>114743</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>182</v>
       </c>
-      <c r="I24" s="7">
-        <v>194126</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>194125</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>286</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>308869</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>89</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3559,8 +3904,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2967A15B-E2A5-42BD-9871-4CFD08D24558}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DCBAE0-CE82-447E-BFE9-CB43FC9FDD28}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3576,7 +3921,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,13 +4028,13 @@
         <v>12681</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -3701,7 +4046,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3713,13 +4058,13 @@
         <v>33614</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +4079,13 @@
         <v>3514</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3755,7 +4100,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3764,13 +4109,13 @@
         <v>3514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,10 +4183,10 @@
         <v>19372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3853,10 +4198,10 @@
         <v>33640</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3868,10 +4213,10 @@
         <v>53013</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3889,13 +4234,13 @@
         <v>930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3904,13 +4249,13 @@
         <v>1006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3919,13 +4264,13 @@
         <v>1936</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,10 +4338,10 @@
         <v>19855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4008,10 +4353,10 @@
         <v>43696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4023,13 +4368,13 @@
         <v>63551</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4389,13 @@
         <v>1022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4059,13 +4404,13 @@
         <v>2095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4074,13 +4419,13 @@
         <v>3117</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,7 +4511,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -4181,7 +4526,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -4220,7 +4565,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4235,7 +4580,7 @@
         <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,10 +4648,10 @@
         <v>18025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4318,10 +4663,10 @@
         <v>24359</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4333,10 +4678,10 @@
         <v>42384</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4354,13 +4699,13 @@
         <v>1135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4369,13 +4714,13 @@
         <v>1819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4384,13 +4729,13 @@
         <v>2954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,46 +4797,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>13060</v>
+        <v>4773</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>27191</v>
+        <v>11475</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>40251</v>
+        <v>16249</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4515,7 +4860,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4524,13 +4869,13 @@
         <v>905</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4539,13 +4884,13 @@
         <v>905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4899,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>13060</v>
+        <v>4773</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -4569,10 +4914,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>28096</v>
+        <v>12380</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -4584,10 +4929,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N21" s="7">
-        <v>41156</v>
+        <v>17154</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -4601,55 +4946,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>95612</v>
+        <v>8287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="H22" s="7">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>183737</v>
+        <v>15715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="M22" s="7">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>279349</v>
+        <v>24002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,49 +5003,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>6601</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>5826</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>12427</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,63 +5054,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8287</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>15715</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>22</v>
+      </c>
+      <c r="N24" s="7">
+        <v>24002</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>92</v>
+      </c>
+      <c r="D25" s="7">
+        <v>95612</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="7">
+        <v>171</v>
+      </c>
+      <c r="I25" s="7">
+        <v>183737</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>263</v>
+      </c>
+      <c r="N25" s="7">
+        <v>279349</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6601</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5826</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" s="7">
+        <v>11</v>
+      </c>
+      <c r="N26" s="7">
+        <v>12427</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>98</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>102213</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>176</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>189563</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>274</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>291776</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>89</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
